--- a/data/trans_orig/P14A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC88249-CAF1-46F8-9C9F-69DA67ED914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C262F2-5EBA-4ECC-8CFC-C73155B67A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E26849BA-CC0B-4A82-B61D-9EA4B5B6CECE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DE0614D-64AD-4EF8-9256-A3C92149E0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="187">
   <si>
     <t>Población que recibe medicación o terapia por colitis en 2012 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -147,37 +147,43 @@
     <t>52,66%</t>
   </si>
   <si>
+    <t>11,5%</t>
+  </si>
+  <si>
     <t>58,1%</t>
   </si>
   <si>
     <t>47,34%</t>
   </si>
   <si>
+    <t>88,5%</t>
+  </si>
+  <si>
     <t>45/54</t>
   </si>
   <si>
     <t>91,55%</t>
   </si>
   <si>
-    <t>62,81%</t>
+    <t>49,64%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>74,7%</t>
+    <t>68,86%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>37,19%</t>
+    <t>50,36%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>25,3%</t>
+    <t>31,14%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -189,16 +195,16 @@
     <t>74,23%</t>
   </si>
   <si>
-    <t>34,75%</t>
+    <t>34,67%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>26,38%</t>
@@ -207,16 +213,16 @@
     <t>25,77%</t>
   </si>
   <si>
-    <t>65,25%</t>
+    <t>65,33%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -225,91 +231,91 @@
     <t>89,74%</t>
   </si>
   <si>
-    <t>46,1%</t>
+    <t>54,19%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>68,23%</t>
+    <t>67,68%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>53,9%</t>
+    <t>45,81%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>31,77%</t>
+    <t>32,32%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>77,06%</t>
+    <t>75,85%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>22,94%</t>
+    <t>24,15%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -327,7 +333,7 @@
     <t>57,47%</t>
   </si>
   <si>
-    <t>17,1%</t>
+    <t>17,18%</t>
   </si>
   <si>
     <t>53,59%</t>
@@ -339,7 +345,7 @@
     <t>42,53%</t>
   </si>
   <si>
-    <t>82,9%</t>
+    <t>82,82%</t>
   </si>
   <si>
     <t>34,1%</t>
@@ -348,13 +354,16 @@
     <t>77,07%</t>
   </si>
   <si>
+    <t>26,49%</t>
+  </si>
+  <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>65,9%</t>
@@ -363,13 +372,16 @@
     <t>22,93%</t>
   </si>
   <si>
+    <t>73,51%</t>
+  </si>
+  <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>28,08%</t>
@@ -381,10 +393,10 @@
     <t>58,85%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>46,37%</t>
@@ -393,6 +405,9 @@
     <t>22,33%</t>
   </si>
   <si>
+    <t>71,63%</t>
+  </si>
+  <si>
     <t>71,92%</t>
   </si>
   <si>
@@ -402,58 +417,61 @@
     <t>41,15%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
+    <t>28,37%</t>
+  </si>
+  <si>
     <t>77,67%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>22,81%</t>
+    <t>25,66%</t>
   </si>
   <si>
     <t>64,93%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>21,95%</t>
   </si>
   <si>
     <t>71,06%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>77,19%</t>
+    <t>74,34%</t>
   </si>
   <si>
     <t>35,07%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>78,05%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -462,19 +480,19 @@
     <t>76,41%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -483,19 +501,19 @@
     <t>23,59%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -504,13 +522,13 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>61,18%</t>
+    <t>62,62%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>64,1%</t>
+    <t>63,88%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -519,67 +537,67 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>38,82%</t>
+    <t>37,38%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>35,9%</t>
+    <t>36,12%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B49BB0-5A57-4FC6-824D-46F25B72667E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8711470F-49B2-4C8C-943B-28B67524ECE2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1458,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1491,7 +1509,7 @@
         <v>2632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
@@ -1506,13 +1524,13 @@
         <v>2632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1568,7 +1586,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1595,10 +1613,10 @@
         <v>11599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -1610,10 +1628,10 @@
         <v>16914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1646,13 +1664,13 @@
         <v>1071</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1661,13 +1679,13 @@
         <v>1071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,7 +1741,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1735,7 +1753,7 @@
         <v>3160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>17</v>
@@ -1750,10 +1768,10 @@
         <v>8188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1765,13 +1783,13 @@
         <v>11348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,7 +1804,7 @@
         <v>1132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
@@ -1801,13 +1819,13 @@
         <v>2842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1816,13 +1834,13 @@
         <v>3974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,7 +1896,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1890,10 +1908,10 @@
         <v>9360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -1905,10 +1923,10 @@
         <v>19145</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1920,13 +1938,13 @@
         <v>28505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1959,13 @@
         <v>1071</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1956,13 +1974,13 @@
         <v>2262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1971,13 +1989,13 @@
         <v>3333</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,10 +2063,10 @@
         <v>26562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2060,13 +2078,13 @@
         <v>51935</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -2075,13 +2093,13 @@
         <v>78497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2114,13 @@
         <v>2203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2111,13 +2129,13 @@
         <v>10795</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2126,13 +2144,13 @@
         <v>12998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,7 +2206,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8449ED8E-714F-466E-A534-029351442F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8F325-D2B0-4215-A7C8-F44131D32B21}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2227,7 +2245,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2334,7 +2352,7 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
@@ -2349,7 +2367,7 @@
         <v>2000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -2364,10 +2382,10 @@
         <v>3095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2385,7 +2403,7 @@
         <v>1264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
@@ -2400,7 +2418,7 @@
         <v>1026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -2415,13 +2433,13 @@
         <v>2290</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2507,7 @@
         <v>1016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
@@ -2504,10 +2522,10 @@
         <v>2934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2519,13 +2537,13 @@
         <v>3951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,7 +2558,7 @@
         <v>1965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -2555,13 +2573,13 @@
         <v>873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2570,13 +2588,13 @@
         <v>2837</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2662,13 @@
         <v>1838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2659,13 +2677,13 @@
         <v>5642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2674,13 +2692,13 @@
         <v>7479</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,10 +2713,10 @@
         <v>4706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -2710,13 +2728,13 @@
         <v>3944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2725,13 +2743,13 @@
         <v>8650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2805,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2799,10 +2817,10 @@
         <v>5190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2814,10 +2832,10 @@
         <v>5058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2829,13 +2847,13 @@
         <v>10248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2868,13 @@
         <v>1442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2865,13 +2883,13 @@
         <v>2731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2880,13 +2898,13 @@
         <v>4173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2960,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2957,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2969,13 +2987,13 @@
         <v>10886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2984,13 +3002,13 @@
         <v>15529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,7 +3029,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3020,13 +3038,13 @@
         <v>3362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3035,13 +3053,13 @@
         <v>3362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3115,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3112,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3124,10 +3142,10 @@
         <v>14983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3139,10 +3157,10 @@
         <v>17227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3166,7 +3184,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3175,13 +3193,13 @@
         <v>2295</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3190,13 +3208,13 @@
         <v>2295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3282,13 @@
         <v>16028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -3279,13 +3297,13 @@
         <v>41502</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -3294,13 +3312,13 @@
         <v>57529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3333,13 @@
         <v>9376</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3330,13 +3348,13 @@
         <v>14230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -3345,13 +3363,13 @@
         <v>23607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3425,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C262F2-5EBA-4ECC-8CFC-C73155B67A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE1A07C-744A-4D06-BE58-A1C4036E39D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DE0614D-64AD-4EF8-9256-A3C92149E0A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A02FE9B0-3C8C-4C9D-A363-C5476D02F7F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="189">
   <si>
     <t>Población que recibe medicación o terapia por colitis en 2012 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -114,13 +114,13 @@
     <t>78,42%</t>
   </si>
   <si>
-    <t>37,43%</t>
+    <t>41,98%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>58,79%</t>
+    <t>62,8%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -129,13 +129,13 @@
     <t>21,58%</t>
   </si>
   <si>
-    <t>62,57%</t>
+    <t>58,02%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>41,21%</t>
+    <t>37,2%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -147,7 +147,7 @@
     <t>52,66%</t>
   </si>
   <si>
-    <t>11,5%</t>
+    <t>13,69%</t>
   </si>
   <si>
     <t>58,1%</t>
@@ -156,7 +156,7 @@
     <t>47,34%</t>
   </si>
   <si>
-    <t>88,5%</t>
+    <t>86,31%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -165,25 +165,25 @@
     <t>91,55%</t>
   </si>
   <si>
-    <t>49,64%</t>
+    <t>61,22%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>68,86%</t>
+    <t>74,51%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>50,36%</t>
+    <t>38,78%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>31,14%</t>
+    <t>25,49%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -192,37 +192,43 @@
     <t>73,62%</t>
   </si>
   <si>
+    <t>23,46%</t>
+  </si>
+  <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>34,67%</t>
+    <t>33,1%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
+    <t>76,54%</t>
+  </si>
+  <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>65,33%</t>
+    <t>66,9%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -231,97 +237,97 @@
     <t>89,74%</t>
   </si>
   <si>
-    <t>54,19%</t>
+    <t>49,46%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>67,68%</t>
+    <t>67,7%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>45,81%</t>
+    <t>50,54%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>32,32%</t>
+    <t>32,3%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>75,85%</t>
+    <t>76,08%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>24,15%</t>
+    <t>23,92%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por colitis en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población que recibe medicación o terapia por colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>46,41%</t>
@@ -333,7 +339,7 @@
     <t>57,47%</t>
   </si>
   <si>
-    <t>17,18%</t>
+    <t>17,13%</t>
   </si>
   <si>
     <t>53,59%</t>
@@ -345,7 +351,7 @@
     <t>42,53%</t>
   </si>
   <si>
-    <t>82,82%</t>
+    <t>82,87%</t>
   </si>
   <si>
     <t>34,1%</t>
@@ -360,10 +366,10 @@
     <t>58,2%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>65,9%</t>
@@ -378,10 +384,10 @@
     <t>41,8%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>28,08%</t>
@@ -393,19 +399,19 @@
     <t>58,85%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>71,92%</t>
@@ -417,61 +423,61 @@
     <t>41,15%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>25,66%</t>
+    <t>25,65%</t>
   </si>
   <si>
     <t>64,93%</t>
   </si>
   <si>
-    <t>21,95%</t>
+    <t>19,87%</t>
   </si>
   <si>
     <t>71,06%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>74,34%</t>
+    <t>74,35%</t>
   </si>
   <si>
     <t>35,07%</t>
   </si>
   <si>
-    <t>78,05%</t>
+    <t>80,13%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -480,19 +486,19 @@
     <t>76,41%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -501,19 +507,19 @@
     <t>23,59%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -522,13 +528,13 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>62,62%</t>
+    <t>56,99%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>63,88%</t>
+    <t>65,72%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -537,67 +543,67 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>37,38%</t>
+    <t>43,01%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>36,12%</t>
+    <t>34,28%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8711470F-49B2-4C8C-943B-28B67524ECE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877674B9-2EB7-4809-8337-F8745B016D63}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1756,7 +1762,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1768,10 +1774,10 @@
         <v>8188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1783,13 +1789,13 @@
         <v>11348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1810,13 @@
         <v>1132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1819,13 +1825,13 @@
         <v>2842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1834,13 +1840,13 @@
         <v>3974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,7 +1902,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1908,10 +1914,10 @@
         <v>9360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -1923,10 +1929,10 @@
         <v>19145</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1938,13 +1944,13 @@
         <v>28505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,13 +1965,13 @@
         <v>1071</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1974,13 +1980,13 @@
         <v>2262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1989,13 +1995,13 @@
         <v>3333</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,10 +2069,10 @@
         <v>26562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2078,13 +2084,13 @@
         <v>51935</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -2093,13 +2099,13 @@
         <v>78497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2120,13 @@
         <v>2203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2129,13 +2135,13 @@
         <v>10795</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2144,13 +2150,13 @@
         <v>12998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2212,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8F325-D2B0-4215-A7C8-F44131D32B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AAD1AD-0122-4C94-8B88-37568BD662B1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2245,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2352,7 +2358,7 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
@@ -2367,7 +2373,7 @@
         <v>2000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -2382,10 +2388,10 @@
         <v>3095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2403,7 +2409,7 @@
         <v>1264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
@@ -2418,7 +2424,7 @@
         <v>1026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -2433,13 +2439,13 @@
         <v>2290</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2513,7 @@
         <v>1016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
@@ -2522,10 +2528,10 @@
         <v>2934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2537,13 +2543,13 @@
         <v>3951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,7 +2564,7 @@
         <v>1965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -2573,13 +2579,13 @@
         <v>873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2588,13 +2594,13 @@
         <v>2837</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2668,13 @@
         <v>1838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2677,13 +2683,13 @@
         <v>5642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2692,13 +2698,13 @@
         <v>7479</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,10 +2719,10 @@
         <v>4706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -2728,13 +2734,13 @@
         <v>3944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2743,13 +2749,13 @@
         <v>8650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,10 +2823,10 @@
         <v>5190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2832,10 +2838,10 @@
         <v>5058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2847,13 +2853,13 @@
         <v>10248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2874,13 @@
         <v>1442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2883,13 +2889,13 @@
         <v>2731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2898,13 +2904,13 @@
         <v>4173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2987,13 +2993,13 @@
         <v>10886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3002,13 +3008,13 @@
         <v>15529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,7 +3035,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3038,13 +3044,13 @@
         <v>3362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3053,13 +3059,13 @@
         <v>3362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3121,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3130,7 +3136,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3142,10 +3148,10 @@
         <v>14983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3157,10 +3163,10 @@
         <v>17227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3184,7 +3190,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3193,13 +3199,13 @@
         <v>2295</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3208,13 +3214,13 @@
         <v>2295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3288,13 @@
         <v>16028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -3297,13 +3303,13 @@
         <v>41502</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -3312,13 +3318,13 @@
         <v>57529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3339,13 @@
         <v>9376</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3348,13 +3354,13 @@
         <v>14230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -3363,13 +3369,13 @@
         <v>23607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3431,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
